--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_48.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_48.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_7</t>
+          <t>model_1_48_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993269318406038</v>
+        <v>0.8552211890505214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8078809686519508</v>
+        <v>0.6217742136440241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7798712051683654</v>
+        <v>0.7465886514615229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9828794384197506</v>
+        <v>0.8884455945694132</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02801664182274695</v>
+        <v>0.3431536714389259</v>
       </c>
       <c r="G2" t="n">
-        <v>1.284700847251203</v>
+        <v>2.52919757493202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7873879353118705</v>
+        <v>0.906437700087901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08040604561058048</v>
+        <v>0.1980651815651222</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3079801203550667</v>
+        <v>1.091086399194067</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1673817248768424</v>
+        <v>0.5857931985256623</v>
       </c>
       <c r="L2" t="n">
-        <v>1.430763622013565</v>
+        <v>0.8028543850900717</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1700178197233133</v>
+        <v>0.5950188558240767</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1499131891021</v>
+        <v>36.13915382092024</v>
       </c>
       <c r="O2" t="n">
-        <v>278.4850857323185</v>
+        <v>73.10373740914605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_6</t>
+          <t>model_1_48_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9933162589019153</v>
+        <v>0.8551228623452203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8077618851748651</v>
+        <v>0.6216542421967547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.780057465194371</v>
+        <v>0.7463507965708914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.983348817776094</v>
+        <v>0.8892252959972251</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02782125075549554</v>
+        <v>0.3433867246716696</v>
       </c>
       <c r="G3" t="n">
-        <v>1.285497159010803</v>
+        <v>2.529999824552327</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7867216939988253</v>
+        <v>0.9072884932400707</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07820162388306295</v>
+        <v>0.196680819340519</v>
       </c>
       <c r="J3" t="n">
-        <v>0.306795199069714</v>
+        <v>1.092245025439159</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1667970346124161</v>
+        <v>0.5859920858438872</v>
       </c>
       <c r="L3" t="n">
-        <v>1.427759430277419</v>
+        <v>0.8027204934062574</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1694239211716982</v>
+        <v>0.5952208754187494</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1639102692742</v>
+        <v>36.13779597952873</v>
       </c>
       <c r="O3" t="n">
-        <v>278.4990828124906</v>
+        <v>73.10237956775454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_5</t>
+          <t>model_1_48_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9933309763472304</v>
+        <v>0.8550195631695402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8077424488320264</v>
+        <v>0.6215327186464958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7802489558947665</v>
+        <v>0.746107953165759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9836754215157273</v>
+        <v>0.8900007312584644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02775998899646223</v>
+        <v>0.3436315636170842</v>
       </c>
       <c r="G4" t="n">
-        <v>1.285627129924862</v>
+        <v>2.530812453092473</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7860367428667792</v>
+        <v>0.9081571300193598</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07666774223657297</v>
+        <v>0.1953040317074666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3067671942902361</v>
+        <v>1.09340428811612</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1666132917760832</v>
+        <v>0.5862009583897694</v>
       </c>
       <c r="L4" t="n">
-        <v>1.426817513777252</v>
+        <v>0.8025798306989483</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1692372845693685</v>
+        <v>0.5954330374984333</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1683190794493</v>
+        <v>36.13637046314901</v>
       </c>
       <c r="O4" t="n">
-        <v>278.5034916226657</v>
+        <v>73.10095405137483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_9</t>
+          <t>model_1_48_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9931561381168348</v>
+        <v>0.8549110651069303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8076007064146273</v>
+        <v>0.6214096249014762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.777751690043745</v>
+        <v>0.7458603217257651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9791582499016054</v>
+        <v>0.8907718375437049</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02848775779811116</v>
+        <v>0.3438887249260107</v>
       </c>
       <c r="G5" t="n">
-        <v>1.286574962122673</v>
+        <v>2.531635581532214</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7949693180160896</v>
+        <v>0.9090428933217217</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09788246145786951</v>
+        <v>0.1939349301842891</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3005020631720339</v>
+        <v>1.094561171033146</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1687831679940602</v>
+        <v>0.58642026305885</v>
       </c>
       <c r="L5" t="n">
-        <v>1.438007160522574</v>
+        <v>0.8024320886562455</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1714413341686983</v>
+        <v>0.5956557959968275</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1165616698689</v>
+        <v>36.1348742959801</v>
       </c>
       <c r="O5" t="n">
-        <v>278.4517342130853</v>
+        <v>73.09945788420592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_8</t>
+          <t>model_1_48_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9934092505078164</v>
+        <v>0.8547973005499792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8074845318155588</v>
+        <v>0.6212849186778673</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7774543855519653</v>
+        <v>0.7456075330723206</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9811975423178202</v>
+        <v>0.8915379905480323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02743417071335082</v>
+        <v>0.3441583688410378</v>
       </c>
       <c r="G6" t="n">
-        <v>1.287351822201579</v>
+        <v>2.532469492623706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7960327589444804</v>
+        <v>0.9099471036775643</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08830500465174188</v>
+        <v>0.1925746232262354</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3013287116908323</v>
+        <v>1.095720581536127</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1656326378264587</v>
+        <v>0.5866501247260055</v>
       </c>
       <c r="L6" t="n">
-        <v>1.421807967499753</v>
+        <v>0.8022771752169929</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1682411863003317</v>
+        <v>0.5958892777554635</v>
       </c>
       <c r="N6" t="n">
-        <v>137.1919318725052</v>
+        <v>36.13330670602137</v>
       </c>
       <c r="O6" t="n">
-        <v>278.5271044157216</v>
+        <v>73.09789029424718</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9934353409691381</v>
+        <v>0.8546781074482434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8073869024357123</v>
+        <v>0.6211585907270856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7799693525970585</v>
+        <v>0.7453497650989864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9846232197874847</v>
+        <v>0.8922993058390556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02732556847156639</v>
+        <v>0.3444408794529333</v>
       </c>
       <c r="G7" t="n">
-        <v>1.288004670314155</v>
+        <v>2.53331424821227</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7870368676503503</v>
+        <v>0.9108691247719349</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07221644484709548</v>
+        <v>0.1912229056426689</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3050709319579744</v>
+        <v>1.096876171570802</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1653044720253097</v>
+        <v>0.5868908582120984</v>
       </c>
       <c r="L7" t="n">
-        <v>1.420138177975161</v>
+        <v>0.8021148697167569</v>
       </c>
       <c r="M7" t="n">
-        <v>0.16790785221586</v>
+        <v>0.596133802553317</v>
       </c>
       <c r="N7" t="n">
-        <v>137.199864882106</v>
+        <v>36.13166563174807</v>
       </c>
       <c r="O7" t="n">
-        <v>278.5350374253224</v>
+        <v>73.09624921997388</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9935142722767888</v>
+        <v>0.8545533830889989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8070882844181946</v>
+        <v>0.6210305502903594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7798972617653617</v>
+        <v>0.7450867918346995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9855191265049043</v>
+        <v>0.8930553374486891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02699701479625477</v>
+        <v>0.3447365002106389</v>
       </c>
       <c r="G8" t="n">
-        <v>1.290001530372305</v>
+        <v>2.53417045520223</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7872947323752633</v>
+        <v>0.9118097648902236</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0680088541062189</v>
+        <v>0.1898805692512639</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3035486860534949</v>
+        <v>1.098079999968807</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1643076833147336</v>
+        <v>0.5871426574612331</v>
       </c>
       <c r="L8" t="n">
-        <v>1.415086574285517</v>
+        <v>0.8019450322914027</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1668953650795155</v>
+        <v>0.5963895673889188</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2240579643841</v>
+        <v>36.12994984255034</v>
       </c>
       <c r="O8" t="n">
-        <v>278.5592305076005</v>
+        <v>73.09453343077617</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9935292423356291</v>
+        <v>0.8544228563796769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.806971119749488</v>
+        <v>0.620900815027271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7800109969406741</v>
+        <v>0.7448184591406317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.985890751296514</v>
+        <v>0.8938058303499421</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02693470152667887</v>
+        <v>0.3450458736557652</v>
       </c>
       <c r="G9" t="n">
-        <v>1.290785011051441</v>
+        <v>2.535037995503878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7868879082479151</v>
+        <v>0.9127695753780803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06626353285585312</v>
+        <v>0.1885480668532075</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3029495115797755</v>
+        <v>1.099311495534892</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1641179500441036</v>
+        <v>0.5874060551745829</v>
       </c>
       <c r="L9" t="n">
-        <v>1.414128490519737</v>
+        <v>0.8017672937936026</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1667026436995368</v>
+        <v>0.5966571133529528</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2286796083111</v>
+        <v>36.12815580734392</v>
       </c>
       <c r="O9" t="n">
-        <v>278.5638521515275</v>
+        <v>73.09273939556974</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9935744897360838</v>
+        <v>0.8542865766522484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8066874875736574</v>
+        <v>0.6207694094443056</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7801615109978153</v>
+        <v>0.7445447604549853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9866755737421337</v>
+        <v>0.8945506006303255</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02674635801432405</v>
+        <v>0.345368882862037</v>
       </c>
       <c r="G10" t="n">
-        <v>1.292681660717226</v>
+        <v>2.535916705242235</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7863495281928276</v>
+        <v>0.9137485797066762</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0625776450382777</v>
+        <v>0.187225724985676</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3012294334120209</v>
+        <v>1.100545070415843</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1635431380838831</v>
+        <v>0.5876809362758307</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41123265689064</v>
+        <v>0.8015817213988063</v>
       </c>
       <c r="M10" t="n">
-        <v>0.166118779025544</v>
+        <v>0.5969363235567648</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2427139278129</v>
+        <v>36.12628441495673</v>
       </c>
       <c r="O10" t="n">
-        <v>278.5778864710293</v>
+        <v>73.09086800318255</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9936039903243465</v>
+        <v>0.8541442222322243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8064073352776244</v>
+        <v>0.6206361608982136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7800932263448235</v>
+        <v>0.744265587790778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9874293472091069</v>
+        <v>0.89528905757875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02662356102810808</v>
+        <v>0.3457062902599598</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29455504041078</v>
+        <v>2.536807738883505</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7865937784372075</v>
+        <v>0.9147471641391842</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05903757753047961</v>
+        <v>0.1859145924579809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3003039614897616</v>
+        <v>1.101780789588288</v>
       </c>
       <c r="K11" t="n">
-        <v>0.163167279281442</v>
+        <v>0.5879679330201264</v>
       </c>
       <c r="L11" t="n">
-        <v>1.409344619241821</v>
+        <v>0.8013878770821778</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1657370008226854</v>
+        <v>0.5972278402128918</v>
       </c>
       <c r="N11" t="n">
-        <v>137.2519174046115</v>
+        <v>36.12433147300277</v>
       </c>
       <c r="O11" t="n">
-        <v>278.5870899478278</v>
+        <v>73.08891506122859</v>
       </c>
     </row>
   </sheetData>
